--- a/KMC/docs/components_map.xlsx
+++ b/KMC/docs/components_map.xlsx
@@ -471,10 +471,10 @@
     <t>content.upload.</t>
   </si>
   <si>
-    <t>KCW</t>
-  </si>
-  <si>
-    <t>kcwBox</t>
+    <t>BCW</t>
+  </si>
+  <si>
+    <t>bcwBox</t>
   </si>
   <si>
     <t>bulkUploadBox</t>
@@ -492,13 +492,13 @@
     <t>profilesCb</t>
   </si>
   <si>
-    <t>kcwBtn</t>
-  </si>
-  <si>
-    <t>combobox with KCW somethings</t>
-  </si>
-  <si>
-    <t>button that opens the KCW</t>
+    <t>bcwBtn</t>
+  </si>
+  <si>
+    <t>combobox with BCW somethings</t>
+  </si>
+  <si>
+    <t>button that opens the BCW</t>
   </si>
   <si>
     <t>submit csv button</t>
@@ -714,22 +714,22 @@
     <t>previewPlayerPage.</t>
   </si>
   <si>
-    <t>kdpWidth</t>
-  </si>
-  <si>
-    <t>kdpHeight</t>
-  </si>
-  <si>
-    <t>refreshKdp3</t>
+    <t>bdpWidth</t>
+  </si>
+  <si>
+    <t>bdpHeight</t>
+  </si>
+  <si>
+    <t>refreshBdp3</t>
   </si>
   <si>
     <t>autoPreview</t>
   </si>
   <si>
-    <t>kdp width</t>
-  </si>
-  <si>
-    <t>kdp height</t>
+    <t>bdp width</t>
+  </si>
+  <si>
+    <t>bdp height</t>
   </si>
   <si>
     <t>refresh button</t>
@@ -1185,7 +1185,7 @@
     <t>uploadOption2Button</t>
   </si>
   <si>
-    <t>open KCW</t>
+    <t>open BCW</t>
   </si>
   <si>
     <t>embedOption1Button</t>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="D166" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>wizard.previewPlayerPage.kdpWidth</v>
+        <v>wizard.previewPlayerPage.bdpWidth</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="D167" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>wizard.previewPlayerPage.kdpHeight</v>
+        <v>wizard.previewPlayerPage.bdpHeight</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3703,7 +3703,7 @@
       </c>
       <c r="D168" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>wizard.previewPlayerPage.refreshKdp3</v>
+        <v>wizard.previewPlayerPage.refreshBdp3</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4526,7 +4526,7 @@
       </c>
       <c r="D238" s="2" t="str">
         <f>CONCATENATE($C$237,C238)</f>
-        <v>content.upload.kcwBox</v>
+        <v>content.upload.bcwBox</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -4556,7 +4556,7 @@
       </c>
       <c r="D240" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>content.upload.kcwBtn</v>
+        <v>content.upload.bcwBtn</v>
       </c>
     </row>
     <row r="241" spans="1:7">
